--- a/xlsx/理察·尼克森_intext.xlsx
+++ b/xlsx/理察·尼克森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1990">
   <si>
     <t>理察·尼克森</t>
   </si>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%9C%8B%E6%9C%83%E9%81%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>加利福尼亞州第十二國會選區</t>
+    <t>加利福尼亚州第十二国会选区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%C2%B7%E6%B2%83%E9%87%8C%E6%96%AF</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E8%A5%BF%E5%A9%AD%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE%C2%B7%E8%80%83%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>特里西婭·尼克松·考克斯</t>
+    <t>特里西娅·尼克松·考克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%8F%90%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>惠提爾學院</t>
+    <t>惠提尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6%E5%A3%AB</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E4%B9%8B%E6%98%9F</t>
   </si>
   <si>
-    <t>戰鬥之星</t>
+    <t>战斗之星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%8B%9D%E5%88%A9%E7%8D%8E%E7%AB%A0</t>
   </si>
   <si>
-    <t>第二次世界大戰勝利獎章</t>
+    <t>第二次世界大战胜利奖章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>加利福尼亞州州長</t>
+    <t>加利福尼亚州州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1968%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空梭計劃</t>
+    <t>太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>冠軍</t>
+    <t>冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9C%83</t>
   </si>
   <si>
-    <t>約會</t>
+    <t>约会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%84%9B</t>
   </si>
   <si>
-    <t>性愛</t>
+    <t>性爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%93%88%E5%B8%83%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E5%8F%B0%E5%8A%87</t>
   </si>
   <si>
-    <t>舞台劇</t>
+    <t>舞台剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%89_(%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>上尉 (海軍)</t>
+    <t>上尉 (海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E8%AD%89%E7%BD%AA</t>
   </si>
   <si>
-    <t>偽證罪</t>
+    <t>伪证罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%90%A8%E5%88%A9%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
@@ -1193,13 +1193,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E9%81%B8</t>
   </si>
   <si>
-    <t>初選</t>
+    <t>初选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%AF%80%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>春節攻勢</t>
+    <t>春节攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7F%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
@@ -1223,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E7%BE%85%E5%A7%86%E5%B0%BC_(%E5%B7%9E%E9%95%B7)</t>
   </si>
   <si>
-    <t>喬治·羅姆尼 (州長)</t>
+    <t>乔治·罗姆尼 (州长)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B0%94%E9%80%8A%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E9%99%A2</t>
@@ -1577,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E5%B9%B3%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>巴黎和平協約</t>
+    <t>巴黎和平协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%BA%BA%E6%B0%91%E5%86%9B</t>
@@ -1661,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%B1%E4%BA%A7%E5%85%9A%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%91%98%E4%BC%9A%E6%80%BB%E4%B9%A6%E8%AE%B0</t>
@@ -1709,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A7%86%E6%9E%97%E5%AE%AB</t>
@@ -1727,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%9B%AE%E6%A8%99%E9%87%8D%E8%BF%94%E5%A4%A7%E6%B0%A3%E5%B1%A4%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>多目標重返大氣層載具</t>
+    <t>多目标重返大气层载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E9%9D%A2%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%AF%95%E9%AA%8C%E6%9D%A1%E7%BA%A6</t>
@@ -1745,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1799,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>以色列國防軍</t>
+    <t>以色列国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
@@ -1835,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德州遊騎兵 (棒球)</t>
+    <t>德州游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%AF%E7%9B%9F%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>大聯盟執行長</t>
+    <t>大联盟执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E9%95%9C</t>
@@ -1853,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%A4%A7%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>偉大社會</t>
+    <t>伟大社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%BA%AA</t>
@@ -1973,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BB%83%E8%9C%82%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-12)</t>
   </si>
   <si>
-    <t>大黃蜂號航空母艦 (CV-12)</t>
+    <t>大黄蜂号航空母舰 (CV-12)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%AA%E7%A9%BA%E6%94%BF%E7%AD%96</t>
@@ -2021,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2%E7%BD%B2%E9%95%B7%E5%8F%8A%E5%89%AF%E7%BD%B2%E9%95%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國國家航空暨太空總署署長及副署長列表</t>
+    <t>美国国家航空暨太空总署署长及副署长列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F</t>
@@ -2057,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/1964%E5%B9%B4%E6%B0%91%E6%AC%8A%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1964年民權法案</t>
+    <t>1964年民权法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -2147,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%96%89_(%E6%B0%B4%E9%96%80%E4%BA%8B%E4%BB%B6)</t>
   </si>
   <si>
-    <t>深喉 (水門事件)</t>
+    <t>深喉 (水门事件)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E8%B4%B9%E5%B0%94%E7%89%B9</t>
@@ -2189,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A6%A8%E7%A4%99%E5%8F%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>妨礙司法</t>
+    <t>妨碍司法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%89%E5%B0%BC%E5%85%8B%E6%9D%BE%E6%A1%88</t>
@@ -2249,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>手術</t>
+    <t>手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E5%91%8A</t>
@@ -2279,7 +2279,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%87%E8%A9%B1%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>談話節目</t>
+    <t>谈话节目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%8C%81%E4%BA%BA</t>
@@ -2369,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%85%8B%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF-%E4%BC%91%E5%A7%86</t>
   </si>
   <si>
-    <t>亞歷克·道格拉斯-休姆</t>
+    <t>亚历克·道格拉斯-休姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7%C2%B7%E5%A8%81%E5%B0%94%E9%80%8A</t>
@@ -2417,7 +2417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%A0%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>博根縣</t>
+    <t>博根县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%B8%96%E7%95%8C</t>
@@ -2531,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>遺體</t>
+    <t>遗体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E5%BF%97</t>
@@ -2609,7 +2609,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E4%BC%AF%E8%A8%98</t>
   </si>
   <si>
-    <t>約伯記</t>
+    <t>约伯记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E6%A0%BC%E6%9E%97%E6%96%AF%E6%BD%98</t>
@@ -2669,7 +2669,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%8B%E5%AE%B6%E4%BA%BA%E7%89%A9%E5%82%B3%E8%A8%98%E5%A4%A7%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>美國國會國家人物傳記大辭典</t>
+    <t>美国国会国家人物传记大辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -2681,9 +2681,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E6%A1%A3%E6%A1%88%E9%A6%86</t>
   </si>
   <si>
@@ -2711,9 +2708,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
   </si>
   <si>
@@ -2735,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%88%A9%E7%9B%8A%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>國家利益中心</t>
+    <t>国家利益中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -2771,7 +2765,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E8%B2%93%E7%8E%8B%E7%A2%B0%E4%B8%8A%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>當貓王碰上總統</t>
+    <t>当猫王碰上总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
@@ -2963,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E6%AF%8F%E6%97%A5%E7%AE%80%E6%8A%A5</t>
@@ -2993,13 +2987,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F</t>
   </si>
   <si>
-    <t>大衛營</t>
+    <t>大卫营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%B1%B1</t>
@@ -3047,7 +3041,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7M%C2%B7%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·M·達拉斯</t>
+    <t>乔治·M·达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%B2%81%E7%A6%8F%E6%96%AF%C2%B7%E9%87%91</t>
@@ -3101,7 +3095,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7W%C2%B7%E8%B2%BB%E7%88%BE%E7%8F%AD%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·W·費爾班克斯</t>
+    <t>查尔斯·W·费尔班克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7S%C2%B7%E8%88%8D%E6%9B%BC</t>
@@ -3203,7 +3197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E7%B4%8D%E5%BE%B7%C2%B7%E5%AE%89%E5%BE%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>羅伯特·伯納德·安德森</t>
+    <t>罗伯特·伯纳德·安德森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
@@ -3251,7 +3245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E8%88%87%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國住房與城市發展部長</t>
+    <t>美国住房与城市发展部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%BF%90%E8%BE%93%E9%83%A8%E9%95%BF</t>
@@ -3263,9 +3257,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -3299,7 +3290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>羅伯特·弗朗西斯·甘迺迪</t>
+    <t>罗伯特·弗朗西斯·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -3329,7 +3320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>萊斯特·皮爾遜</t>
+    <t>莱斯特·皮尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E7%89%B9%E9%B2%81%E5%A4%9A</t>
@@ -3359,7 +3350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%B7%E7%88%BE%C2%B7%E5%8D%A1%E6%96%AF%E6%A5%9A</t>
   </si>
   <si>
-    <t>菲德爾·卡斯楚</t>
+    <t>菲德尔·卡斯楚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%B0%94%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BD%97</t>
@@ -3395,7 +3386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E5%A5%A7%E7%88%BE%E7%89%B9%E5%8A%A0</t>
   </si>
   <si>
-    <t>丹尼爾·奧爾特加</t>
+    <t>丹尼尔·奥尔特加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -3461,7 +3452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%81%E8%B2%9D%E6%89%98%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E5%80%AB%E5%8D%A1%E7%88%BE%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9%E7%95%A5%C2%B7%E5%B8%83%E6%9C%97%E5%BA%AB</t>
   </si>
   <si>
-    <t>翁貝托·德·阿倫卡爾·卡斯特略·布朗庫</t>
+    <t>翁贝托·德·阿伦卡尔·卡斯特略·布朗库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -3473,13 +3464,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A%C2%B7%E9%98%BF%E9%80%A3%E5%BE%B7</t>
   </si>
   <si>
-    <t>薩爾瓦多·阿連德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>喬治六世</t>
+    <t>乔治六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
@@ -3491,39 +3479,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%96%AF%E9%A0%93%C2%B7%E9%82%B1%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>溫斯頓·邱吉爾</t>
+    <t>温斯顿·邱吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E7%A6%AE</t>
   </si>
   <si>
-    <t>艾德禮</t>
+    <t>艾德礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E8%89%BE%E7%99%BB</t>
   </si>
   <si>
-    <t>安東尼·艾登</t>
+    <t>安东尼·艾登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%BE%8E%E5%80%AB</t>
   </si>
   <si>
-    <t>麥美倫</t>
+    <t>麦美伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>哈羅德·威爾遜</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%B8%8C%E6%80%9D</t>
   </si>
   <si>
-    <t>愛德華·希思</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E6%9D%B0</t>
   </si>
   <si>
@@ -3557,7 +3539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E5%BE%B7%E5%8B%83%E9%9B%B7</t>
@@ -3611,7 +3593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E7%B4%A2%E7%93%A6%C2%B7%E7%B1%B3%E7%89%B9%E6%9C%97</t>
   </si>
   <si>
-    <t>法蘭索瓦·米特朗</t>
+    <t>法兰索瓦·米特朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E5%B0%94%C2%B7%E8%8E%AB%E9%B2%81%E7%93%A6</t>
@@ -3665,25 +3647,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E7%A9%86%E7%89%B9%C2%B7%E6%96%BD%E5%AF%86%E7%89%B9</t>
   </si>
   <si>
-    <t>赫爾穆特·施密特</t>
+    <t>赫尔穆特·施密特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E7%A9%86%E7%89%B9%C2%B7%E7%A7%91%E7%88%BE</t>
   </si>
   <si>
-    <t>赫爾穆特·科爾</t>
+    <t>赫尔穆特·科尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%A5%91%E5%BE%B7%C2%B7%E5%8A%A0%E6%96%AF%E8%B2%9D%E5%88%A9</t>
   </si>
   <si>
-    <t>阿爾契德·加斯貝利</t>
+    <t>阿尔契德·加斯贝利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%B0%94%E7%B1%B3%E7%BD%97%C2%B7%E9%99%B6%E9%87%8C%E4%BA%9A%E8%92%82</t>
@@ -3701,7 +3683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%A4%9A%C2%B7%E8%8E%AB%E7%BE%85</t>
   </si>
   <si>
-    <t>阿爾多·莫羅</t>
+    <t>阿尔多·莫罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E9%87%8C%E7%A7%91%C2%B7%E8%B4%9D%E6%9E%97%E6%A0%BC</t>
@@ -3731,19 +3713,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E5%BE%B7%C2%B7%E5%A5%A7%E5%88%A9%E7%B6%AD%E6%8B%89%C2%B7%E8%96%A9%E6%8B%89%E6%9F%A5</t>
   </si>
   <si>
-    <t>安東尼奧·德·奧利維拉·薩拉查</t>
+    <t>安东尼奥·德·奥利维拉·萨拉查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%A1%9E%E6%B4%9B%C2%B7%E9%81%94%E6%96%AF%E5%85%A7%E7%B6%AD%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E7%B6%AD%E6%96%AF%C2%B7%E5%8D%A1%E4%B8%B9%E5%A5%B4</t>
   </si>
   <si>
-    <t>馬爾塞洛·達斯內維斯·阿爾維斯·卡丹奴</t>
+    <t>马尔塞洛·达斯内维斯·阿尔维斯·卡丹奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E9%81%94%E7%A7%91%E6%96%AF%E5%A1%94%C2%B7%E6%88%88%E9%BA%A5%E6%96%AF</t>
   </si>
   <si>
-    <t>弗朗西斯科·達科斯塔·戈麥斯</t>
+    <t>弗朗西斯科·达科斯塔·戈麦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%96%AF%E7%A7%91%C2%B7%E8%B4%A1%E8%90%A8%E5%B0%94%E7%BB%B4%E6%96%AF</t>
@@ -3755,7 +3737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%A5%A7%C2%B7%E8%98%87%E4%BA%9E%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>馬里奧·蘇亞雷斯</t>
+    <t>马里奥·苏亚雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E5%BE%B7%E5%8D%A2%E5%B0%94%E5%BE%B7%E6%96%AF%C2%B7%E5%B9%B3%E5%A1%94%E8%A5%BF%E5%B0%94%E6%88%88</t>
@@ -3767,7 +3749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E8%8F%AF%E9%AB%98</t>
   </si>
   <si>
-    <t>施華高</t>
+    <t>施华高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -3791,13 +3773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%BC%97%C2%B7%E8%98%87%E4%BA%9E%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>阿道弗·蘇亞雷斯</t>
+    <t>阿道弗·苏亚雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E4%BD%A9%C2%B7%E5%B2%A1%E8%96%A9%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>費利佩·岡薩雷斯</t>
+    <t>费利佩·冈萨雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -3809,7 +3791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%A0%BC%C2%B7%E5%9F%83%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>塔格·埃蘭德</t>
+    <t>塔格·埃兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%B4%9B%E5%A4%AB%C2%B7%E5%B8%95%E5%B0%94%E6%A2%85</t>
@@ -3833,7 +3815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%93%A6%E7%88%BE%C2%B7%E5%8D%A1%E7%88%BE%E6%9D%BE</t>
   </si>
   <si>
-    <t>英瓦爾·卡爾松</t>
+    <t>英瓦尔·卡尔松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%AF%94%E5%B0%94%E7%89%B9</t>
@@ -3851,7 +3833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E5%8D%81%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>庇護十二世</t>
+    <t>庇护十二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%E4%BA%8C%E5%8D%81%E4%B8%89%E4%B8%96</t>
@@ -3863,19 +3845,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%A5%BF%E5%85%AD%E4%B8%96</t>
   </si>
   <si>
-    <t>保祿六世</t>
+    <t>保禄六世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿一世</t>
+    <t>若望·保禄一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%BB%B4%E8%90%A8%E9%87%8C%E5%A5%A5%E8%AF%BA%E7%BB%B4%E5%A5%87%C2%B7%E6%96%AF%E5%A4%A7%E6%9E%97</t>
@@ -3905,9 +3887,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%9F%BA%E5%A1%94%C2%B7%E8%AC%9D%E7%88%BE%E8%93%8B%E8%80%B6%E7%B6%AD%E5%A5%87%C2%B7%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB</t>
   </si>
   <si>
-    <t>尼基塔·謝爾蓋耶維奇·赫魯曉夫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%C2%B7%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%BD%97%E7%BB%B4%E5%A5%87%C2%B7%E5%AE%89%E5%BE%B7%E7%BD%97%E6%B3%A2%E5%A4%AB</t>
   </si>
   <si>
@@ -3947,7 +3926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E6%99%AE%C2%B7%E9%93%81%E6%89%98</t>
@@ -3971,9 +3950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%9A%AE%E5%85%8B</t>
   </si>
   <si>
@@ -3983,7 +3959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E7%89%B9%C2%B7%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C</t>
   </si>
   <si>
-    <t>瓦爾特·烏布利希</t>
+    <t>瓦尔特·乌布利希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E6%98%82%E7%BA%B3%E5%85%8B</t>
@@ -3995,13 +3971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%8B%92%E6%B2%99%C2%B7%E8%B2%9D%E9%AD%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>柏勒沙·貝魯特</t>
+    <t>柏勒沙·贝鲁特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%BF%AA%E6%96%AF%E7%93%A6%E5%A4%AB%C2%B7%E5%93%A5%E7%A9%86%E5%B0%94%E5%8D%A1</t>
@@ -4013,7 +3989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%90%89%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>愛德華·吉瑞克</t>
+    <t>爱德华·吉瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E4%BE%9D%E5%88%87%E8%B5%AB%C2%B7%E9%9B%85%E9%B2%81%E6%B3%BD%E5%B0%94%E6%96%AF%E5%9F%BA</t>
@@ -4049,7 +4025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%9D%9C%E5%B8%83%E5%88%87%E5%85%8B</t>
   </si>
   <si>
-    <t>亞歷山大·杜布切克</t>
+    <t>亚历山大·杜布切克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E8%83%A1%E8%90%A8%E5%85%8B</t>
@@ -4073,7 +4049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E7%B6%AD%E7%88%BE%C2%B7%E9%9C%8D%E6%9F%A5</t>
   </si>
   <si>
-    <t>恩維爾·霍查</t>
+    <t>恩维尔·霍查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%B1%B3%E5%85%B9%C2%B7%E9%98%BF%E5%88%A9%E9%9B%85</t>
@@ -4085,7 +4061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E5%9F%BA%C2%B7%E4%B9%94%E6%B2%BB%E4%B9%8C-%E5%BE%B7%E6%B2%BB</t>
@@ -4103,7 +4079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E7%A7%91%C2%B7%E5%A5%91%E5%B0%94%E6%96%87%E7%A7%91%E5%A4%AB</t>
@@ -4133,13 +4109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%90%89%C2%B7%E4%BC%8A%E5%A7%86%E9%9B%B7</t>
   </si>
   <si>
-    <t>納吉·伊姆雷</t>
+    <t>纳吉·伊姆雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E7%88%BE%C2%B7%E4%BA%9E%E8%AB%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>卡達爾·亞諾什</t>
+    <t>卡达尔·亚诺什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA</t>
@@ -4151,13 +4127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E5%8D%8E</t>
@@ -4169,13 +4145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AE%97%E4%BB%81</t>
@@ -4187,49 +4163,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E8%AA%A0</t>
   </si>
   <si>
-    <t>陳誠</t>
+    <t>陈诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%AE%B6%E6%B7%A6</t>
   </si>
   <si>
-    <t>嚴家淦</t>
+    <t>严家淦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%B6%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>蔣經國</t>
+    <t>蒋经国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%9D%B1%E9%96%94</t>
   </si>
   <si>
-    <t>謝東閔</t>
+    <t>谢东闵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E9%81%8B%E7%92%BF</t>
   </si>
   <si>
-    <t>孫運璿</t>
+    <t>孙运璿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9E%E5%9C%8B%E8%8F%AF</t>
   </si>
   <si>
-    <t>俞國華</t>
+    <t>俞国华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%99%BB%E8%BC%9D</t>
   </si>
   <si>
-    <t>李登輝</t>
+    <t>李登辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%85%A5</t>
   </si>
   <si>
-    <t>李煥</t>
+    <t>李焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%9D%E6%9F%8F%E6%9D%91</t>
@@ -4463,13 +4439,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A9%E5%B1%B1%E4%B8%80%E9%83%8E</t>
   </si>
   <si>
-    <t>鳩山一郎</t>
+    <t>鸠山一郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%A9%8B%E6%B9%9B%E5%B1%B1</t>
   </si>
   <si>
-    <t>石橋湛山</t>
+    <t>石桥湛山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B8%E4%BF%A1%E4%BB%8B</t>
@@ -4493,7 +4469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E4%B8%AD%E8%A7%92%E6%A6%AE</t>
   </si>
   <si>
-    <t>田中角榮</t>
+    <t>田中角荣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9C%A8%E6%AD%A6%E5%A4%AB</t>
@@ -4517,7 +4493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E5%96%84%E5%B9%B8</t>
   </si>
   <si>
-    <t>鈴木善幸</t>
+    <t>铃木善幸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%BE%E6%A0%B9%E5%BA%B7%E5%BC%98</t>
@@ -4529,7 +4505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%80%8D%E6%99%89%E5%A4%AA%E9%83%8E</t>
   </si>
   <si>
-    <t>安倍晉太郎</t>
+    <t>安倍晋太郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E4%B8%8B%E7%99%BB</t>
@@ -4547,19 +4523,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%83%A8%E4%BF%8A%E6%A8%B9</t>
   </si>
   <si>
-    <t>海部俊樹</t>
+    <t>海部俊树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E6%BE%A4%E5%96%9C%E4%B8%80</t>
   </si>
   <si>
-    <t>宮澤喜一</t>
+    <t>宫泽喜一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -4595,7 +4571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%8B%89_(%E9%9F%93%E5%9C%8B)</t>
   </si>
   <si>
-    <t>張勉 (韓國)</t>
+    <t>张勉 (韩国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AD%A3%E7%86%99</t>
@@ -4613,13 +4589,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%97%E7%85%A5</t>
   </si>
   <si>
-    <t>全斗煥</t>
+    <t>全斗焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%B3%B0%E6%84%9A</t>
   </si>
   <si>
-    <t>盧泰愚</t>
+    <t>卢泰愚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -4631,7 +4607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E6%B4%9B%C2%B7%E5%96%AC%E5%B7%B4%E5%B1%B1</t>
   </si>
   <si>
-    <t>霍爾洛·喬巴山</t>
+    <t>霍尔洛·乔巴山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E7%9D%A6%E4%BD%B3%C2%B7%E6%B3%BD%E7%99%BB%E5%B7%B4%E5%B0%94</t>
@@ -4643,7 +4619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -4679,7 +4655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E7%AD%8D</t>
   </si>
   <si>
-    <t>黎筍</t>
+    <t>黎笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%BF%9B%E5%8B%87</t>
@@ -4697,21 +4673,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%96%87%E9%9D%88</t>
   </si>
   <si>
-    <t>阮文靈</t>
+    <t>阮文灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%BB%B7%E7%90%B0</t>
   </si>
   <si>
-    <t>吳廷琰</t>
+    <t>吴廷琰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%96%87%E7%B4%B9</t>
   </si>
   <si>
-    <t>阮文紹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E9%AB%98%E7%A5%BA</t>
   </si>
   <si>
@@ -4727,19 +4700,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%96%87%E9%A6%99</t>
   </si>
   <si>
-    <t>陳文香</t>
+    <t>陈文香</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%85%B6</t>
   </si>
   <si>
-    <t>阮慶</t>
+    <t>阮庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>楊文明</t>
+    <t>杨文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -4763,13 +4736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%AA%E4%B9%9D%E4%B8%96</t>
   </si>
   <si>
-    <t>拉瑪九世</t>
+    <t>拉玛九世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%AE%E6%8A%AB%E6%B1%B6%C2%B7%E9%A2%82%E5%A0%AA</t>
@@ -4793,19 +4766,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E7%BE%85%E5%93%88%E6%96%AF_(%E8%8F%B2%E5%BE%8B%E8%B3%93)</t>
   </si>
   <si>
-    <t>曼努埃爾·羅哈斯 (菲律賓)</t>
+    <t>曼努埃尔·罗哈斯 (菲律宾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E7%9A%AE%E8%BF%AA%E5%A5%A7%C2%B7%E5%9F%BA%E9%87%8C%E8%AB%BE</t>
   </si>
   <si>
-    <t>埃爾皮迪奧·基里諾</t>
+    <t>埃尔皮迪奥·基里诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%92%99%C2%B7%E9%BA%A6%E6%A0%BC%E8%B5%9B%E8%B5%9B</t>
@@ -4817,7 +4790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E5%8A%A0%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>卡洛斯·加西亞</t>
+    <t>卡洛斯·加西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A5%A5%E6%96%AF%E8%BE%BE%E5%A4%9A%C2%B7%E9%A9%AC%E5%8D%A1%E5%B8%95%E5%8A%A0%E5%B0%94</t>
@@ -4829,13 +4802,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%BF%AA%E5%8D%97%E5%BE%B7%C2%B7%E9%A6%AC%E7%A7%91%E6%96%AF</t>
   </si>
   <si>
-    <t>費迪南德·馬科斯</t>
+    <t>费迪南德·马科斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -4847,7 +4820,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%A7%91%E9%98%BF%E9%83%BD%E6%8B%89%E6%9B%BC</t>
   </si>
   <si>
-    <t>東姑阿都拉曼</t>
+    <t>东姑阿都拉曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%83%BD%E6%8B%89%E8%90%A8</t>
@@ -4883,7 +4856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%8A%AA</t>
@@ -4907,7 +4880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%AB%BE</t>
   </si>
   <si>
-    <t>朗諾</t>
+    <t>朗诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%A3%AE</t>
@@ -4919,7 +4892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%96%A9%E6%97%BA%C2%B7%E9%A6%AE</t>
   </si>
   <si>
-    <t>西薩旺·馮</t>
+    <t>西萨旺·冯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%90%A8%E6%97%BA%C2%B7%E7%93%A6%E8%BE%BE%E7%BA%B3</t>
@@ -4943,19 +4916,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%B1%B1%C2%B7%E8%B1%90%E5%A8%81%E6%BC%A2</t>
   </si>
   <si>
-    <t>凱山·豐威漢</t>
+    <t>凯山·丰威汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%93%A6%E5%93%88%E6%8B%89%E7%88%BE%C2%B7%E5%B0%BC%E8%B5%AB%E9%AD%AF</t>
   </si>
   <si>
-    <t>賈瓦哈拉爾·尼赫魯</t>
+    <t>贾瓦哈拉尔·尼赫鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%BF%AA%E6%8B%89%C2%B7%E7%94%98%E5%9C%B0</t>
@@ -5009,13 +4982,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E8%B5%AB%C2%B7%E7%A9%86%E5%90%89%E5%B8%83%C2%B7%E6%8B%89%E8%B5%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>謝赫·穆吉布·拉赫曼</t>
+    <t>谢赫·穆吉布·拉赫曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E4%BA%9E%C2%B7%E6%8B%89%E8%B5%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>齊亞·拉赫曼</t>
+    <t>齐亚·拉赫曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%B0%94%E6%B2%99%E5%BE%B7</t>
@@ -5027,7 +5000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E7%8F%AD%E7%B4%8D%E8%BF%AA%E5%85%8B%E7%89%B9%C2%B7%E5%A5%87%E5%A4%AB%E5%88%A9</t>
   </si>
   <si>
-    <t>約瑟夫·班納迪克特·奇夫利</t>
+    <t>约瑟夫·班纳迪克特·奇夫利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7%C2%B7%E9%9C%8D%E5%B0%94%E7%89%B9</t>
@@ -5039,15 +5012,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E9%AB%98%E5%A4%AB%C2%B7%E6%83%A0%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>愛德華·高夫·惠特蘭</t>
+    <t>爱德华·高夫·惠特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E7%A7%91%E5%A7%86%C2%B7%E5%BC%97%E9%9B%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>馬爾科姆·弗雷澤</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%AF%94%C2%B7%E9%9C%8D%E5%85%8B</t>
   </si>
   <si>
@@ -5057,15 +5027,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%9F%BA%E5%BB%B7</t>
   </si>
   <si>
-    <t>保羅·基廷</t>
+    <t>保罗·基廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%9C%AC-%E5%8F%A4%E9%87%8C%E5%AE%89</t>
   </si>
   <si>
@@ -5123,9 +5090,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E8%83%A1%E6%96%AF%E5%B0%BC%C2%B7%E7%A9%86%E5%B7%B4%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
@@ -5177,7 +5141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%98%BF%E9%BD%90%E5%85%B9%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%E8%B5%AB%E6%9B%BC%C2%B7%E6%9C%AC%C2%B7%E8%B4%B9%E8%90%A8%E5%B0%94%C2%B7%E9%98%BF%E5%8B%92%E6%B2%99%E7%89%B9</t>
@@ -5219,13 +5183,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%BE%B7%E9%87%8C%E6%96%AF%E4%B8%80%E4%B8%96_(%E5%88%A9%E6%AF%94%E4%BA%9E)</t>
   </si>
   <si>
-    <t>伊德里斯一世 (利比亞)</t>
+    <t>伊德里斯一世 (利比亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E8%BF%88%E5%B0%94%C2%B7%E5%8D%A1%E6%89%8E%E8%8F%B2</t>
@@ -5243,19 +5204,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%93%88%E7%89%B9%C2%B7%E9%98%BF%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>費爾哈特·阿巴斯</t>
+    <t>费尔哈特·阿巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%93%88%E9%82%81%E5%BE%B7%C2%B7%E6%9C%AC%C2%B7%E8%B2%9D%E6%8B%89</t>
   </si>
   <si>
-    <t>艾哈邁德·本·貝拉</t>
+    <t>艾哈迈德·本·贝拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%98%BF%E9%87%8C%C2%B7%E5%B8%83%E9%82%81%E4%B8%81</t>
   </si>
   <si>
-    <t>胡阿里·布邁丁</t>
+    <t>胡阿里·布迈丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E8%B5%AB%C2%B7%E6%AF%94%E5%A1%94%E7%89%B9</t>
@@ -5273,19 +5234,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%B8%83%E8%BF%AA%E4%BA%9E%E5%A4%AB</t>
   </si>
   <si>
-    <t>穆罕默德·布迪亞夫</t>
+    <t>穆罕默德·布迪亚夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%AF%94%E5%8D%9C%C2%B7%E5%B8%83%E7%88%BE%E5%90%89%E5%B7%B4</t>
   </si>
   <si>
-    <t>哈比卜·布爾吉巴</t>
+    <t>哈比卜·布尔吉巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E5%9B%A0%C2%B7%E9%98%BF%E6%AF%94%E4%B8%81%C2%B7%E7%8F%AD%C2%B7%E9%98%BF%E9%87%8C</t>
@@ -5297,7 +5258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B9%9F%E9%96%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯也門共和國</t>
+    <t>阿拉伯也门共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E8%90%A8%E5%88%A9%E8%B5%AB</t>
@@ -5309,7 +5270,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E6%B0%91%E4%B8%BB%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>也門民主人民共和國</t>
+    <t>也门民主人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92%C2%B7%E6%B3%95%E5%A1%94%E8%B5%AB%C2%B7%E4%BC%8A%E6%96%AF%E6%A2%85%E5%B0%94</t>
@@ -5333,19 +5294,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%B4%8D%E5%90%89%E5%B8%83%E6%8B%89</t>
   </si>
   <si>
-    <t>穆罕默德·納吉布拉</t>
+    <t>穆罕默德·纳吉布拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%93%88%E9%82%81%E5%BE%B7%C2%B7%E6%B2%99%E9%98%BF%C2%B7%E9%A6%AC%E8%98%87%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾哈邁德·沙阿·馬蘇德</t>
+    <t>艾哈迈德·沙阿·马苏德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E8%A7%A3%E6%94%BE%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>巴勒斯坦解放組織</t>
+    <t>巴勒斯坦解放组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A5%BF%E5%B0%94%C2%B7%E9%98%BF%E6%8B%89%E6%B3%95%E7%89%B9</t>
@@ -5363,7 +5324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%BC%97%E5%80%AB%E6%96%BD%C2%B7%E7%B6%AD%E6%B2%83%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>亨德里克·弗倫施·維沃爾德</t>
+    <t>亨德里克·弗伦施·维沃尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%B3%A2%E5%A1%94</t>
@@ -5381,13 +5342,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>納爾遜·曼德拉</t>
+    <t>纳尔逊·曼德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E4%BC%8A%E5%B0%94</t>
@@ -5411,7 +5372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%8A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>贊比亞</t>
+    <t>赞比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E6%80%9D%C2%B7%E5%8D%A1%E7%BF%81%E8%BE%BE</t>
@@ -5459,7 +5420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%A5%A7%E5%8D%9A%E7%89%B9</t>
   </si>
   <si>
-    <t>米爾頓·奧博特</t>
+    <t>米尔顿·奥博特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%BF%AA%C2%B7%E9%98%BF%E6%95%8F</t>
@@ -5471,7 +5432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%96%AF%E5%BB%B7%E6%96%AF%C2%B7%E5%8D%A1%E7%A9%86%E7%A5%96%C2%B7%E7%8F%AD%E8%BE%BE</t>
@@ -5483,7 +5444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94%C2%B7%E5%A1%9E%E6%8B%89%E8%A5%BF%E4%B8%80%E4%B8%96</t>
@@ -5513,13 +5474,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%BE%A4%C2%B7%E6%84%9B%E5%BE%B7%E8%8F%AF%E5%A4%9A%C2%B7%E5%A4%9A%E6%96%AF%E6%A1%91%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>若澤·愛德華多·多斯桑托斯</t>
+    <t>若泽·爱德华多·多斯桑托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E7%B4%8D%E6%96%AF%C2%B7%E8%96%A9%E6%96%87%E6%AF%94</t>
   </si>
   <si>
-    <t>若納斯·薩文比</t>
+    <t>若纳斯·萨文比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -5549,7 +5510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E5%B7%B4%E9%83%BD%C2%B7%E5%8D%9A%E5%8D%A1%E8%96%A9</t>
   </si>
   <si>
-    <t>讓-巴都·博卡薩</t>
+    <t>让-巴都·博卡萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
@@ -5561,13 +5522,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -5591,7 +5552,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -5675,7 +5636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -5705,7 +5666,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -5717,7 +5678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -5741,7 +5702,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%978%E5%8F%B7</t>
@@ -5777,7 +5738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -5801,15 +5762,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B0%94%E9%80%8A%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>纳尔逊·曼德拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%88%B4%E5%85%8B%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
@@ -5819,7 +5777,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -5843,7 +5801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E5%AF%86%E8%80%85</t>
@@ -5855,7 +5813,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -5903,13 +5861,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -5921,7 +5879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Me_Too</t>
@@ -5933,7 +5891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5951,7 +5909,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5969,7 +5927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5993,13 +5951,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A1%A3%E6%A1%88%E5%92%8C%E8%AE%B0%E5%BD%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -19853,7 +19811,7 @@
         <v>887</v>
       </c>
       <c r="F465" t="s">
-        <v>888</v>
+        <v>512</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -19879,10 +19837,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>888</v>
+      </c>
+      <c r="F466" t="s">
         <v>889</v>
-      </c>
-      <c r="F466" t="s">
-        <v>890</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -19908,10 +19866,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>890</v>
+      </c>
+      <c r="F467" t="s">
         <v>891</v>
-      </c>
-      <c r="F467" t="s">
-        <v>892</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -19937,10 +19895,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>892</v>
+      </c>
+      <c r="F468" t="s">
         <v>893</v>
-      </c>
-      <c r="F468" t="s">
-        <v>894</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -19995,10 +19953,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>894</v>
+      </c>
+      <c r="F470" t="s">
         <v>895</v>
-      </c>
-      <c r="F470" t="s">
-        <v>896</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -20198,10 +20156,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F477" t="s">
-        <v>898</v>
+        <v>32</v>
       </c>
       <c r="G477" t="n">
         <v>26</v>
@@ -20227,10 +20185,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F478" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G478" t="n">
         <v>42</v>
@@ -20256,10 +20214,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F479" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G479" t="n">
         <v>3</v>
@@ -20285,10 +20243,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -20343,10 +20301,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F482" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G482" t="n">
         <v>3</v>
@@ -20372,10 +20330,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F483" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -20459,10 +20417,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F486" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -20546,10 +20504,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F489" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G489" t="n">
         <v>17</v>
@@ -20575,10 +20533,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F490" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G490" t="n">
         <v>3</v>
@@ -20604,10 +20562,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F491" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -20633,10 +20591,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F492" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -20749,10 +20707,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F496" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -20778,10 +20736,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F497" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -20807,10 +20765,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F498" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -20836,10 +20794,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F499" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -20865,10 +20823,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F500" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -20894,10 +20852,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F501" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -20923,10 +20881,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F502" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -20952,10 +20910,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F503" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -20981,10 +20939,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F504" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -21010,10 +20968,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F505" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -21039,10 +20997,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F506" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -21068,10 +21026,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F507" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -21097,10 +21055,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F508" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -21126,10 +21084,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F509" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -21155,10 +21113,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F510" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -21184,10 +21142,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F511" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -21213,10 +21171,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F512" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -21242,10 +21200,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F513" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -21271,10 +21229,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F514" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -21300,10 +21258,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F515" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -21329,10 +21287,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F516" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -21358,10 +21316,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F517" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G517" t="n">
         <v>2</v>
@@ -21387,10 +21345,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F518" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -21416,10 +21374,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F519" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -21445,10 +21403,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F520" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -21474,10 +21432,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F521" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -21503,10 +21461,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F522" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -21532,10 +21490,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F523" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -21561,10 +21519,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F524" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -21590,10 +21548,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F525" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -21619,10 +21577,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F526" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -21648,10 +21606,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F527" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G527" t="n">
         <v>3</v>
@@ -21677,10 +21635,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F528" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -21706,10 +21664,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F529" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -21764,10 +21722,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F531" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -21793,10 +21751,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F532" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -21822,10 +21780,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F533" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -21851,10 +21809,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F534" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -21880,10 +21838,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F535" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -21909,10 +21867,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F536" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -21967,10 +21925,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F538" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -21996,10 +21954,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F539" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -22025,10 +21983,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F540" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -22054,10 +22012,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F541" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -22083,10 +22041,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F542" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -22112,10 +22070,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F543" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -22141,10 +22099,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F544" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -22170,10 +22128,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F545" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -22199,10 +22157,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F546" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -22228,10 +22186,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F547" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -22257,10 +22215,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F548" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -22286,10 +22244,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F549" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -22315,10 +22273,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F550" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -22344,10 +22302,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F551" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -22373,10 +22331,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F552" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -22402,10 +22360,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F553" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -22431,10 +22389,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F554" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -22460,10 +22418,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F555" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -22489,10 +22447,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F556" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -22518,10 +22476,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F557" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -22547,10 +22505,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F558" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -22576,10 +22534,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F559" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -22605,10 +22563,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F560" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -22634,10 +22592,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F561" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -22663,10 +22621,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F562" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -22692,10 +22650,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F563" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -22721,10 +22679,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F564" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -22750,10 +22708,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F565" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -22779,10 +22737,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F566" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -22837,10 +22795,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F568" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G568" t="n">
         <v>5</v>
@@ -22895,10 +22853,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F570" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -22924,10 +22882,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F571" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G571" t="n">
         <v>2</v>
@@ -22953,10 +22911,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F572" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -22982,10 +22940,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F573" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -23011,10 +22969,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F574" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G574" t="n">
         <v>3</v>
@@ -23040,10 +22998,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F575" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -23069,10 +23027,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F576" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -23098,10 +23056,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F577" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -23127,10 +23085,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F578" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -23243,10 +23201,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F582" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -23272,10 +23230,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F583" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -23301,10 +23259,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F584" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -23330,10 +23288,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F585" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -23359,10 +23317,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F586" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -23388,10 +23346,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F587" t="s">
-        <v>1082</v>
+        <v>906</v>
       </c>
       <c r="G587" t="n">
         <v>3</v>
@@ -23417,10 +23375,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F588" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G588" t="n">
         <v>3</v>
@@ -23446,10 +23404,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="F589" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -23475,10 +23433,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F590" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -23504,10 +23462,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F591" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -23533,10 +23491,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F592" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -23591,10 +23549,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F594" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -23620,10 +23578,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F595" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -23678,10 +23636,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F597" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -23707,10 +23665,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F598" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -23736,10 +23694,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F599" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -23765,10 +23723,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F600" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -23794,10 +23752,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F601" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -23823,10 +23781,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F602" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -23852,10 +23810,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F603" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -23881,10 +23839,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F604" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -23910,10 +23868,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F605" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -23939,10 +23897,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F606" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -23968,10 +23926,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F607" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -23997,10 +23955,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F608" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -24026,10 +23984,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F609" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -24055,10 +24013,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F610" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -24084,10 +24042,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F611" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -24113,10 +24071,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F612" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -24142,10 +24100,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F613" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -24171,10 +24129,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F614" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -24200,10 +24158,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F615" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -24229,10 +24187,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F616" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -24258,10 +24216,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F617" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -24287,10 +24245,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F618" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -24316,10 +24274,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F619" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -24345,10 +24303,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F620" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -24374,10 +24332,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F621" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -24403,10 +24361,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F622" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -24432,10 +24390,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F623" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -24461,10 +24419,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F624" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G624" t="n">
         <v>5</v>
@@ -24490,10 +24448,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F625" t="s">
-        <v>1152</v>
+        <v>538</v>
       </c>
       <c r="G625" t="n">
         <v>5</v>
@@ -24577,10 +24535,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F628" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -24606,10 +24564,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F629" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -24635,10 +24593,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F630" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -24664,10 +24622,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F631" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -24693,10 +24651,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F632" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -24722,10 +24680,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F633" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -24780,10 +24738,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F635" t="s">
-        <v>1166</v>
+        <v>786</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -24809,10 +24767,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="F636" t="s">
-        <v>1168</v>
+        <v>790</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -24838,10 +24796,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F637" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -24867,10 +24825,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F638" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -24896,10 +24854,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F639" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -24925,10 +24883,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F640" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -24954,10 +24912,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="F641" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -24983,10 +24941,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="F642" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="G642" t="n">
         <v>2</v>
@@ -25012,10 +24970,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="F643" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -25041,10 +24999,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F644" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -25070,10 +25028,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F645" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -25099,10 +25057,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F646" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -25128,10 +25086,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="F647" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -25157,10 +25115,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F648" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -25186,10 +25144,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="F649" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -25215,10 +25173,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="F650" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -25244,10 +25202,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F651" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -25273,10 +25231,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F652" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -25302,10 +25260,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F653" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -25331,10 +25289,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F654" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -25360,10 +25318,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="F655" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -25389,10 +25347,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="F656" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -25418,10 +25376,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F657" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -25447,10 +25405,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F658" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -25476,10 +25434,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="F659" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -25505,10 +25463,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="F660" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="G660" t="n">
         <v>2</v>
@@ -25534,10 +25492,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="F661" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -25563,10 +25521,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F662" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -25592,10 +25550,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="F663" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -25621,10 +25579,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F664" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -25650,10 +25608,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F665" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -25679,10 +25637,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F666" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -25708,10 +25666,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="F667" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -25737,10 +25695,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F668" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -25766,10 +25724,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="F669" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -25795,10 +25753,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F670" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -25824,10 +25782,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F671" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -25853,10 +25811,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F672" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -25882,10 +25840,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F673" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -25911,10 +25869,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="F674" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -25940,10 +25898,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="F675" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -25969,10 +25927,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="F676" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -25998,10 +25956,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="F677" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -26027,10 +25985,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F678" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -26056,10 +26014,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="F679" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -26085,10 +26043,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="F680" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -26114,10 +26072,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="F681" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -26143,10 +26101,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="F682" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -26172,10 +26130,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="F683" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -26201,10 +26159,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="F684" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -26230,10 +26188,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="F685" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -26259,10 +26217,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="F686" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -26288,10 +26246,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F687" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -26317,10 +26275,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="F688" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -26346,10 +26304,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F689" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -26375,10 +26333,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="F690" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -26404,10 +26362,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="F691" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -26433,10 +26391,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F692" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -26462,10 +26420,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="F693" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G693" t="n">
         <v>2</v>
@@ -26491,10 +26449,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="F694" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -26520,10 +26478,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="F695" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -26549,10 +26507,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F696" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G696" t="n">
         <v>2</v>
@@ -26607,10 +26565,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="F698" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -26636,10 +26594,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="F699" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -26665,10 +26623,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F700" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -26694,10 +26652,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="F701" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -26723,10 +26681,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F702" t="s">
-        <v>1296</v>
+        <v>342</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -26810,10 +26768,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="F705" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -26839,10 +26797,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="F706" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26868,10 +26826,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="F707" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26897,10 +26855,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="F708" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -26926,10 +26884,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="F709" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26955,10 +26913,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="F710" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26984,10 +26942,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="F711" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -27013,10 +26971,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="F712" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -27042,10 +27000,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="F713" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -27071,10 +27029,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="F714" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -27100,10 +27058,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="F715" t="s">
-        <v>1318</v>
+        <v>378</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -27129,10 +27087,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="F716" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -27158,10 +27116,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="F717" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -27187,10 +27145,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="F718" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -27216,10 +27174,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F719" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -27245,10 +27203,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="F720" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -27274,10 +27232,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="F721" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -27303,10 +27261,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="F722" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -27332,10 +27290,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="F723" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -27361,10 +27319,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="F724" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -27390,10 +27348,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="F725" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -27419,10 +27377,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="F726" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -27448,10 +27406,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="F727" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -27477,10 +27435,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="F728" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -27506,10 +27464,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="F729" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -27535,10 +27493,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="F730" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -27564,10 +27522,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="F731" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -27593,10 +27551,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="F732" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -27622,10 +27580,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="F733" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -27651,10 +27609,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="F734" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -27680,10 +27638,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="F735" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -27709,10 +27667,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="F736" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -27738,10 +27696,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="F737" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -27767,10 +27725,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="F738" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -27796,10 +27754,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="F739" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -27825,10 +27783,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="F740" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="G740" t="n">
         <v>2</v>
@@ -27854,10 +27812,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="F741" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -27883,10 +27841,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="F742" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -27912,10 +27870,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="F743" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -27941,10 +27899,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="F744" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G744" t="n">
         <v>2</v>
@@ -27970,10 +27928,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="F745" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -27999,10 +27957,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F746" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -28028,10 +27986,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="F747" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -28057,10 +28015,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="F748" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -28086,10 +28044,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F749" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="G749" t="n">
         <v>2</v>
@@ -28115,10 +28073,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="F750" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -28144,10 +28102,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="F751" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -28173,10 +28131,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="F752" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -28202,10 +28160,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="F753" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -28231,10 +28189,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="F754" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -28260,10 +28218,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="F755" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -28289,10 +28247,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="F756" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -28318,10 +28276,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="F757" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -28347,10 +28305,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="F758" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -28376,10 +28334,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="F759" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -28405,10 +28363,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="F760" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -28434,10 +28392,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="F761" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -28463,10 +28421,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="F762" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -28492,10 +28450,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="F763" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -28521,10 +28479,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="F764" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -28550,10 +28508,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="F765" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -28579,10 +28537,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="F766" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -28608,10 +28566,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="F767" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -28637,10 +28595,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="F768" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -28666,10 +28624,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="F769" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -28695,10 +28653,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="F770" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -28724,10 +28682,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="F771" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -28753,10 +28711,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="F772" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -28782,10 +28740,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="F773" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -28811,10 +28769,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F774" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -28840,10 +28798,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="F775" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -28869,10 +28827,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="F776" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -28898,10 +28856,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="F777" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -28927,10 +28885,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="F778" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -28956,10 +28914,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="F779" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -28985,10 +28943,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="F780" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="G780" t="n">
         <v>1</v>
@@ -29014,10 +28972,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
       <c r="F781" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -29043,10 +29001,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="F782" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -29072,10 +29030,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="F783" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -29101,10 +29059,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="F784" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -29130,10 +29088,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="F785" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -29159,10 +29117,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="F786" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -29188,10 +29146,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="F787" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -29217,10 +29175,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="F788" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -29246,10 +29204,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="F789" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -29275,10 +29233,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="F790" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -29304,10 +29262,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="F791" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -29333,10 +29291,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="F792" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -29362,10 +29320,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="F793" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -29391,10 +29349,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="F794" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -29420,10 +29378,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="F795" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -29449,10 +29407,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="F796" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -29478,10 +29436,10 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="F797" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -29507,10 +29465,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="F798" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -29536,10 +29494,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="F799" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -29565,10 +29523,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="F800" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -29594,10 +29552,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="F801" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -29623,10 +29581,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="F802" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -29652,10 +29610,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="F803" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -29681,10 +29639,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="F804" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -29710,10 +29668,10 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="F805" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -29739,10 +29697,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="F806" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -29768,10 +29726,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="F807" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -29797,10 +29755,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="F808" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -29826,10 +29784,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="F809" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29855,10 +29813,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="F810" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29884,10 +29842,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="F811" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -29913,10 +29871,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="F812" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -29942,10 +29900,10 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="F813" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="G813" t="n">
         <v>1</v>
@@ -29971,10 +29929,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="F814" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="G814" t="n">
         <v>4</v>
@@ -30000,10 +29958,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="F815" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -30029,10 +29987,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="F816" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -30058,10 +30016,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F817" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -30087,10 +30045,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="F818" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -30116,10 +30074,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="F819" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -30145,10 +30103,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="F820" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -30174,10 +30132,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="F821" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -30203,10 +30161,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="F822" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -30232,10 +30190,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="F823" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -30261,10 +30219,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F824" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -30290,10 +30248,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="F825" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -30319,10 +30277,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F826" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -30348,10 +30306,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="F827" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -30377,10 +30335,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F828" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="G828" t="n">
         <v>9</v>
@@ -30406,10 +30364,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="F829" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="G829" t="n">
         <v>2</v>
@@ -30435,10 +30393,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="F830" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -30464,10 +30422,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="F831" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -30493,10 +30451,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="F832" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -30522,10 +30480,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="F833" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -30551,10 +30509,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="F834" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -30580,10 +30538,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="F835" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -30609,10 +30567,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="F836" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -30638,10 +30596,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="F837" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -30667,10 +30625,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="F838" t="s">
-        <v>1564</v>
+        <v>424</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -30696,10 +30654,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="F839" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -30725,10 +30683,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="F840" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -30754,10 +30712,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="F841" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -30783,10 +30741,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="F842" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -30812,10 +30770,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="F843" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -30841,10 +30799,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="F844" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="G844" t="n">
         <v>1</v>
@@ -30870,10 +30828,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="F845" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -30899,10 +30857,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="F846" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -30928,10 +30886,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="F847" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -30957,10 +30915,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="F848" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -30986,10 +30944,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="F849" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -31015,10 +30973,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="F850" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -31044,10 +31002,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="F851" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -31073,10 +31031,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="F852" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -31102,10 +31060,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="F853" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -31131,10 +31089,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="F854" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -31160,10 +31118,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="F855" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -31189,10 +31147,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="F856" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -31218,10 +31176,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="F857" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -31247,10 +31205,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="F858" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -31276,10 +31234,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="F859" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -31305,10 +31263,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="F860" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -31334,10 +31292,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="F861" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -31363,10 +31321,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="F862" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -31392,10 +31350,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="F863" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -31421,10 +31379,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="F864" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -31450,10 +31408,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="F865" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -31479,10 +31437,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="F866" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -31508,10 +31466,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="F867" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -31537,10 +31495,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="F868" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -31566,10 +31524,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="F869" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -31595,10 +31553,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="F870" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -31624,10 +31582,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="F871" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -31653,10 +31611,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="F872" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -31682,10 +31640,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="F873" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -31711,10 +31669,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="F874" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -31740,10 +31698,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="F875" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -31769,10 +31727,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="F876" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -31798,10 +31756,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="F877" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31827,10 +31785,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="F878" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="G878" t="n">
         <v>2</v>
@@ -31856,10 +31814,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="F879" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
@@ -31885,10 +31843,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="F880" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -31914,10 +31872,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="F881" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -31943,10 +31901,10 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="F882" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -31972,10 +31930,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="F883" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="G883" t="n">
         <v>2</v>
@@ -32001,10 +31959,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="F884" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="G884" t="n">
         <v>2</v>
@@ -32030,10 +31988,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="F885" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="G885" t="n">
         <v>2</v>
@@ -32059,10 +32017,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="F886" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="G886" t="n">
         <v>2</v>
@@ -32088,10 +32046,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="F887" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -32117,10 +32075,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="F888" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -32146,10 +32104,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="F889" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -32175,10 +32133,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="F890" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>
@@ -32204,10 +32162,10 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="F891" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -32233,10 +32191,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="F892" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -32262,10 +32220,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="F893" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -32291,10 +32249,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="F894" t="s">
-        <v>1676</v>
+        <v>774</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -32320,10 +32278,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="F895" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -32349,10 +32307,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="F896" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -32378,10 +32336,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="F897" t="s">
-        <v>1682</v>
+        <v>130</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -32407,10 +32365,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="F898" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -32436,10 +32394,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="F899" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -32465,10 +32423,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="F900" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -32494,10 +32452,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="F901" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -32523,10 +32481,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="F902" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -32552,10 +32510,10 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="F903" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -32581,10 +32539,10 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="F904" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="G904" t="n">
         <v>1</v>
@@ -32610,10 +32568,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="F905" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -32639,10 +32597,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="F906" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="G906" t="n">
         <v>2</v>
@@ -32668,10 +32626,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="F907" t="s">
-        <v>1702</v>
+        <v>574</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -32697,10 +32655,10 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="F908" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -32726,10 +32684,10 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="F909" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -32755,10 +32713,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="F910" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -32784,10 +32742,10 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="F911" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -32813,10 +32771,10 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="F912" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="G912" t="n">
         <v>1</v>
@@ -32842,10 +32800,10 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="F913" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="G913" t="n">
         <v>1</v>
@@ -32871,10 +32829,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="F914" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -32900,10 +32858,10 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="F915" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -32929,10 +32887,10 @@
         <v>915</v>
       </c>
       <c r="E916" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="F916" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -32958,10 +32916,10 @@
         <v>916</v>
       </c>
       <c r="E917" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="F917" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -32987,10 +32945,10 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="F918" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="G918" t="n">
         <v>1</v>
@@ -33016,10 +32974,10 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="F919" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="G919" t="n">
         <v>1</v>
@@ -33045,10 +33003,10 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="F920" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="G920" t="n">
         <v>1</v>
@@ -33074,10 +33032,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="F921" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -33132,10 +33090,10 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="F923" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -33161,10 +33119,10 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="F924" t="s">
-        <v>1734</v>
+        <v>804</v>
       </c>
       <c r="G924" t="n">
         <v>1</v>
@@ -33190,10 +33148,10 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="F925" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -33219,10 +33177,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="F926" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -33248,10 +33206,10 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="F927" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="G927" t="n">
         <v>1</v>
@@ -33277,10 +33235,10 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="F928" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -33306,10 +33264,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="F929" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -33335,10 +33293,10 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="F930" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -33364,10 +33322,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="F931" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -33393,10 +33351,10 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="F932" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -33422,10 +33380,10 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="F933" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="G933" t="n">
         <v>1</v>
@@ -33451,10 +33409,10 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
       <c r="F934" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="G934" t="n">
         <v>1</v>
@@ -33480,10 +33438,10 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="F935" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="G935" t="n">
         <v>1</v>
@@ -33509,10 +33467,10 @@
         <v>935</v>
       </c>
       <c r="E936" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="F936" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="G936" t="n">
         <v>1</v>
@@ -33538,10 +33496,10 @@
         <v>936</v>
       </c>
       <c r="E937" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="F937" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="G937" t="n">
         <v>1</v>
@@ -33567,10 +33525,10 @@
         <v>937</v>
       </c>
       <c r="E938" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="F938" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="G938" t="n">
         <v>1</v>
@@ -33596,10 +33554,10 @@
         <v>938</v>
       </c>
       <c r="E939" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="F939" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="G939" t="n">
         <v>1</v>
@@ -33625,10 +33583,10 @@
         <v>939</v>
       </c>
       <c r="E940" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="F940" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="G940" t="n">
         <v>1</v>
@@ -33654,10 +33612,10 @@
         <v>940</v>
       </c>
       <c r="E941" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="F941" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="G941" t="n">
         <v>1</v>
@@ -33683,10 +33641,10 @@
         <v>941</v>
       </c>
       <c r="E942" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="F942" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="G942" t="n">
         <v>1</v>
@@ -33712,10 +33670,10 @@
         <v>942</v>
       </c>
       <c r="E943" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="F943" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="G943" t="n">
         <v>1</v>
@@ -33741,10 +33699,10 @@
         <v>943</v>
       </c>
       <c r="E944" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="F944" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="G944" t="n">
         <v>1</v>
@@ -33770,10 +33728,10 @@
         <v>944</v>
       </c>
       <c r="E945" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
       <c r="F945" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="G945" t="n">
         <v>1</v>
@@ -33799,10 +33757,10 @@
         <v>945</v>
       </c>
       <c r="E946" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="F946" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="G946" t="n">
         <v>2</v>
@@ -33828,13 +33786,13 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
       <c r="F947" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="G947" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -33857,10 +33815,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
       <c r="F948" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
       <c r="G948" t="n">
         <v>1</v>
@@ -33886,10 +33844,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
       <c r="F949" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
       <c r="G949" t="n">
         <v>1</v>
@@ -33915,10 +33873,10 @@
         <v>949</v>
       </c>
       <c r="E950" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
       <c r="F950" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
       <c r="G950" t="n">
         <v>1</v>
@@ -33944,10 +33902,10 @@
         <v>950</v>
       </c>
       <c r="E951" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="F951" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
       <c r="G951" t="n">
         <v>1</v>
@@ -33973,10 +33931,10 @@
         <v>951</v>
       </c>
       <c r="E952" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
       <c r="F952" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="G952" t="n">
         <v>1</v>
@@ -34002,10 +33960,10 @@
         <v>952</v>
       </c>
       <c r="E953" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="F953" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
       <c r="G953" t="n">
         <v>1</v>
@@ -34031,10 +33989,10 @@
         <v>953</v>
       </c>
       <c r="E954" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="F954" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
       <c r="G954" t="n">
         <v>1</v>
@@ -34060,10 +34018,10 @@
         <v>954</v>
       </c>
       <c r="E955" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
       <c r="F955" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
       <c r="G955" t="n">
         <v>1</v>
@@ -34089,10 +34047,10 @@
         <v>955</v>
       </c>
       <c r="E956" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
       <c r="F956" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
       <c r="G956" t="n">
         <v>1</v>
@@ -34118,10 +34076,10 @@
         <v>956</v>
       </c>
       <c r="E957" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
       <c r="F957" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
       <c r="G957" t="n">
         <v>1</v>
@@ -34147,10 +34105,10 @@
         <v>957</v>
       </c>
       <c r="E958" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
       <c r="F958" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
       <c r="G958" t="n">
         <v>1</v>
@@ -34176,10 +34134,10 @@
         <v>958</v>
       </c>
       <c r="E959" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="F959" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
       <c r="G959" t="n">
         <v>1</v>
@@ -34205,10 +34163,10 @@
         <v>959</v>
       </c>
       <c r="E960" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="F960" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
       <c r="G960" t="n">
         <v>1</v>
@@ -34234,10 +34192,10 @@
         <v>960</v>
       </c>
       <c r="E961" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
       <c r="F961" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
       <c r="G961" t="n">
         <v>2</v>
@@ -34263,10 +34221,10 @@
         <v>961</v>
       </c>
       <c r="E962" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
       <c r="F962" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
       <c r="G962" t="n">
         <v>1</v>
@@ -34292,10 +34250,10 @@
         <v>962</v>
       </c>
       <c r="E963" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
       <c r="F963" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
       <c r="G963" t="n">
         <v>1</v>
@@ -34321,10 +34279,10 @@
         <v>963</v>
       </c>
       <c r="E964" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
       <c r="F964" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
       <c r="G964" t="n">
         <v>1</v>
@@ -34350,10 +34308,10 @@
         <v>964</v>
       </c>
       <c r="E965" t="s">
-        <v>1815</v>
+        <v>1802</v>
       </c>
       <c r="F965" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
       <c r="G965" t="n">
         <v>1</v>
@@ -34379,10 +34337,10 @@
         <v>965</v>
       </c>
       <c r="E966" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
       <c r="F966" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
       <c r="G966" t="n">
         <v>1</v>
@@ -34408,10 +34366,10 @@
         <v>966</v>
       </c>
       <c r="E967" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
       <c r="F967" t="s">
-        <v>1820</v>
+        <v>1807</v>
       </c>
       <c r="G967" t="n">
         <v>1</v>
@@ -34437,10 +34395,10 @@
         <v>967</v>
       </c>
       <c r="E968" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
       <c r="F968" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
       <c r="G968" t="n">
         <v>1</v>
@@ -34466,10 +34424,10 @@
         <v>968</v>
       </c>
       <c r="E969" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
       <c r="F969" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
       <c r="G969" t="n">
         <v>2</v>
@@ -34495,10 +34453,10 @@
         <v>969</v>
       </c>
       <c r="E970" t="s">
-        <v>1825</v>
+        <v>1812</v>
       </c>
       <c r="F970" t="s">
-        <v>1826</v>
+        <v>1813</v>
       </c>
       <c r="G970" t="n">
         <v>1</v>
@@ -34524,10 +34482,10 @@
         <v>970</v>
       </c>
       <c r="E971" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
       <c r="F971" t="s">
-        <v>1828</v>
+        <v>1815</v>
       </c>
       <c r="G971" t="n">
         <v>1</v>
@@ -34553,10 +34511,10 @@
         <v>971</v>
       </c>
       <c r="E972" t="s">
-        <v>1829</v>
+        <v>1816</v>
       </c>
       <c r="F972" t="s">
-        <v>1830</v>
+        <v>1817</v>
       </c>
       <c r="G972" t="n">
         <v>1</v>
@@ -34582,10 +34540,10 @@
         <v>972</v>
       </c>
       <c r="E973" t="s">
-        <v>1831</v>
+        <v>1818</v>
       </c>
       <c r="F973" t="s">
-        <v>1832</v>
+        <v>1819</v>
       </c>
       <c r="G973" t="n">
         <v>1</v>
@@ -34611,10 +34569,10 @@
         <v>973</v>
       </c>
       <c r="E974" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="F974" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="G974" t="n">
         <v>1</v>
@@ -34640,10 +34598,10 @@
         <v>974</v>
       </c>
       <c r="E975" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="F975" t="s">
-        <v>1836</v>
+        <v>1823</v>
       </c>
       <c r="G975" t="n">
         <v>1</v>
@@ -34669,10 +34627,10 @@
         <v>975</v>
       </c>
       <c r="E976" t="s">
-        <v>1837</v>
+        <v>1824</v>
       </c>
       <c r="F976" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
       <c r="G976" t="n">
         <v>1</v>
@@ -34698,10 +34656,10 @@
         <v>976</v>
       </c>
       <c r="E977" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
       <c r="F977" t="s">
-        <v>1840</v>
+        <v>1827</v>
       </c>
       <c r="G977" t="n">
         <v>1</v>
@@ -34727,10 +34685,10 @@
         <v>977</v>
       </c>
       <c r="E978" t="s">
-        <v>1841</v>
+        <v>1828</v>
       </c>
       <c r="F978" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="G978" t="n">
         <v>1</v>
@@ -34756,10 +34714,10 @@
         <v>978</v>
       </c>
       <c r="E979" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
       <c r="F979" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="G979" t="n">
         <v>1</v>
@@ -34785,10 +34743,10 @@
         <v>979</v>
       </c>
       <c r="E980" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
       <c r="F980" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
       <c r="G980" t="n">
         <v>1</v>
@@ -34814,10 +34772,10 @@
         <v>980</v>
       </c>
       <c r="E981" t="s">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="F981" t="s">
-        <v>1848</v>
+        <v>1835</v>
       </c>
       <c r="G981" t="n">
         <v>1</v>
@@ -34843,10 +34801,10 @@
         <v>981</v>
       </c>
       <c r="E982" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
       <c r="F982" t="s">
-        <v>1850</v>
+        <v>1837</v>
       </c>
       <c r="G982" t="n">
         <v>1</v>
@@ -34872,10 +34830,10 @@
         <v>982</v>
       </c>
       <c r="E983" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
       <c r="F983" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
       <c r="G983" t="n">
         <v>1</v>
@@ -34901,10 +34859,10 @@
         <v>983</v>
       </c>
       <c r="E984" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="F984" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="G984" t="n">
         <v>1</v>
@@ -34959,10 +34917,10 @@
         <v>985</v>
       </c>
       <c r="E986" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="F986" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="G986" t="n">
         <v>1</v>
@@ -34988,10 +34946,10 @@
         <v>986</v>
       </c>
       <c r="E987" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
       <c r="F987" t="s">
-        <v>1858</v>
+        <v>1845</v>
       </c>
       <c r="G987" t="n">
         <v>1</v>
@@ -35017,10 +34975,10 @@
         <v>987</v>
       </c>
       <c r="E988" t="s">
-        <v>1859</v>
+        <v>1846</v>
       </c>
       <c r="F988" t="s">
-        <v>1860</v>
+        <v>1847</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -35046,10 +35004,10 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="F989" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G989" t="n">
         <v>2</v>
@@ -35075,10 +35033,10 @@
         <v>989</v>
       </c>
       <c r="E990" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="F990" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
       <c r="G990" t="n">
         <v>2</v>
@@ -35104,10 +35062,10 @@
         <v>990</v>
       </c>
       <c r="E991" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F991" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G991" t="n">
         <v>2</v>
@@ -35133,10 +35091,10 @@
         <v>991</v>
       </c>
       <c r="E992" t="s">
-        <v>1863</v>
+        <v>1850</v>
       </c>
       <c r="F992" t="s">
-        <v>1864</v>
+        <v>1851</v>
       </c>
       <c r="G992" t="n">
         <v>1</v>
@@ -35162,10 +35120,10 @@
         <v>992</v>
       </c>
       <c r="E993" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
       <c r="F993" t="s">
-        <v>1866</v>
+        <v>1853</v>
       </c>
       <c r="G993" t="n">
         <v>1</v>
@@ -35191,10 +35149,10 @@
         <v>993</v>
       </c>
       <c r="E994" t="s">
-        <v>1867</v>
+        <v>1854</v>
       </c>
       <c r="F994" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="G994" t="n">
         <v>1</v>
@@ -35220,10 +35178,10 @@
         <v>994</v>
       </c>
       <c r="E995" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="F995" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="G995" t="n">
         <v>1</v>
@@ -35249,10 +35207,10 @@
         <v>995</v>
       </c>
       <c r="E996" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F996" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="G996" t="n">
         <v>1</v>
@@ -35278,10 +35236,10 @@
         <v>996</v>
       </c>
       <c r="E997" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="F997" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
       <c r="G997" t="n">
         <v>1</v>
@@ -35336,10 +35294,10 @@
         <v>998</v>
       </c>
       <c r="E999" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
       <c r="F999" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="G999" t="n">
         <v>1</v>
@@ -35365,10 +35323,10 @@
         <v>999</v>
       </c>
       <c r="E1000" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="F1000" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="G1000" t="n">
         <v>1</v>
@@ -35394,10 +35352,10 @@
         <v>1000</v>
       </c>
       <c r="E1001" t="s">
-        <v>1877</v>
+        <v>1864</v>
       </c>
       <c r="F1001" t="s">
-        <v>1878</v>
+        <v>1865</v>
       </c>
       <c r="G1001" t="n">
         <v>1</v>
@@ -35423,10 +35381,10 @@
         <v>1001</v>
       </c>
       <c r="E1002" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="F1002" t="s">
-        <v>1880</v>
+        <v>1867</v>
       </c>
       <c r="G1002" t="n">
         <v>1</v>
@@ -35452,10 +35410,10 @@
         <v>1002</v>
       </c>
       <c r="E1003" t="s">
-        <v>1881</v>
+        <v>1868</v>
       </c>
       <c r="F1003" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
       <c r="G1003" t="n">
         <v>1</v>
@@ -35481,10 +35439,10 @@
         <v>1003</v>
       </c>
       <c r="E1004" t="s">
-        <v>1883</v>
+        <v>1870</v>
       </c>
       <c r="F1004" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
       <c r="G1004" t="n">
         <v>1</v>
@@ -35510,10 +35468,10 @@
         <v>1004</v>
       </c>
       <c r="E1005" t="s">
-        <v>1885</v>
+        <v>1872</v>
       </c>
       <c r="F1005" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="G1005" t="n">
         <v>1</v>
@@ -35539,10 +35497,10 @@
         <v>1005</v>
       </c>
       <c r="E1006" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
       <c r="F1006" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
       <c r="G1006" t="n">
         <v>1</v>
@@ -35568,10 +35526,10 @@
         <v>1006</v>
       </c>
       <c r="E1007" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="F1007" t="s">
-        <v>1890</v>
+        <v>1877</v>
       </c>
       <c r="G1007" t="n">
         <v>1</v>
@@ -35597,10 +35555,10 @@
         <v>1007</v>
       </c>
       <c r="E1008" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
       <c r="F1008" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
       <c r="G1008" t="n">
         <v>1</v>
@@ -35626,10 +35584,10 @@
         <v>1008</v>
       </c>
       <c r="E1009" t="s">
-        <v>1893</v>
+        <v>1880</v>
       </c>
       <c r="F1009" t="s">
-        <v>1894</v>
+        <v>1881</v>
       </c>
       <c r="G1009" t="n">
         <v>1</v>
@@ -35655,10 +35613,10 @@
         <v>1009</v>
       </c>
       <c r="E1010" t="s">
-        <v>1895</v>
+        <v>1882</v>
       </c>
       <c r="F1010" t="s">
-        <v>1896</v>
+        <v>1883</v>
       </c>
       <c r="G1010" t="n">
         <v>1</v>
@@ -35684,10 +35642,10 @@
         <v>1010</v>
       </c>
       <c r="E1011" t="s">
-        <v>1897</v>
+        <v>1884</v>
       </c>
       <c r="F1011" t="s">
-        <v>1898</v>
+        <v>1885</v>
       </c>
       <c r="G1011" t="n">
         <v>1</v>
@@ -35713,10 +35671,10 @@
         <v>1011</v>
       </c>
       <c r="E1012" t="s">
-        <v>1899</v>
+        <v>1886</v>
       </c>
       <c r="F1012" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="G1012" t="n">
         <v>1</v>
@@ -35742,10 +35700,10 @@
         <v>1012</v>
       </c>
       <c r="E1013" t="s">
-        <v>1901</v>
+        <v>1888</v>
       </c>
       <c r="F1013" t="s">
-        <v>1902</v>
+        <v>1889</v>
       </c>
       <c r="G1013" t="n">
         <v>1</v>
@@ -35771,10 +35729,10 @@
         <v>1013</v>
       </c>
       <c r="E1014" t="s">
-        <v>1903</v>
+        <v>1890</v>
       </c>
       <c r="F1014" t="s">
-        <v>1904</v>
+        <v>1891</v>
       </c>
       <c r="G1014" t="n">
         <v>1</v>
@@ -35800,10 +35758,10 @@
         <v>1014</v>
       </c>
       <c r="E1015" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
       <c r="F1015" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
       <c r="G1015" t="n">
         <v>1</v>
@@ -35829,10 +35787,10 @@
         <v>1015</v>
       </c>
       <c r="E1016" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
       <c r="F1016" t="s">
-        <v>1908</v>
+        <v>1895</v>
       </c>
       <c r="G1016" t="n">
         <v>1</v>
@@ -35858,10 +35816,10 @@
         <v>1016</v>
       </c>
       <c r="E1017" t="s">
-        <v>1909</v>
+        <v>1896</v>
       </c>
       <c r="F1017" t="s">
-        <v>1910</v>
+        <v>1897</v>
       </c>
       <c r="G1017" t="n">
         <v>1</v>
@@ -35887,10 +35845,10 @@
         <v>1017</v>
       </c>
       <c r="E1018" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="F1018" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
       <c r="G1018" t="n">
         <v>1</v>
@@ -35916,10 +35874,10 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="F1019" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="G1019" t="n">
         <v>1</v>
@@ -35945,10 +35903,10 @@
         <v>1019</v>
       </c>
       <c r="E1020" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="F1020" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
       <c r="G1020" t="n">
         <v>1</v>
@@ -35974,10 +35932,10 @@
         <v>1020</v>
       </c>
       <c r="E1021" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
       <c r="F1021" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="G1021" t="n">
         <v>1</v>
@@ -36003,10 +35961,10 @@
         <v>1021</v>
       </c>
       <c r="E1022" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="F1022" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="G1022" t="n">
         <v>1</v>
@@ -36061,10 +36019,10 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
       <c r="F1024" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="G1024" t="n">
         <v>1</v>
@@ -36090,10 +36048,10 @@
         <v>1024</v>
       </c>
       <c r="E1025" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
       <c r="F1025" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
       <c r="G1025" t="n">
         <v>1</v>
@@ -36119,10 +36077,10 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="F1026" t="s">
-        <v>1702</v>
+        <v>574</v>
       </c>
       <c r="G1026" t="n">
         <v>1</v>
@@ -36148,10 +36106,10 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="F1027" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="G1027" t="n">
         <v>1</v>
@@ -36177,10 +36135,10 @@
         <v>1027</v>
       </c>
       <c r="E1028" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="F1028" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="G1028" t="n">
         <v>1</v>
@@ -36206,10 +36164,10 @@
         <v>1028</v>
       </c>
       <c r="E1029" t="s">
-        <v>1923</v>
+        <v>1910</v>
       </c>
       <c r="F1029" t="s">
-        <v>1924</v>
+        <v>1911</v>
       </c>
       <c r="G1029" t="n">
         <v>1</v>
@@ -36235,10 +36193,10 @@
         <v>1029</v>
       </c>
       <c r="E1030" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="F1030" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="G1030" t="n">
         <v>1</v>
@@ -36264,10 +36222,10 @@
         <v>1030</v>
       </c>
       <c r="E1031" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="F1031" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="G1031" t="n">
         <v>1</v>
@@ -36293,10 +36251,10 @@
         <v>1031</v>
       </c>
       <c r="E1032" t="s">
-        <v>1925</v>
+        <v>1912</v>
       </c>
       <c r="F1032" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
       <c r="G1032" t="n">
         <v>1</v>
@@ -36322,10 +36280,10 @@
         <v>1032</v>
       </c>
       <c r="E1033" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
       <c r="F1033" t="s">
-        <v>1928</v>
+        <v>1915</v>
       </c>
       <c r="G1033" t="n">
         <v>1</v>
@@ -36351,10 +36309,10 @@
         <v>1033</v>
       </c>
       <c r="E1034" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="F1034" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="G1034" t="n">
         <v>1</v>
@@ -36380,10 +36338,10 @@
         <v>1034</v>
       </c>
       <c r="E1035" t="s">
-        <v>1929</v>
+        <v>1916</v>
       </c>
       <c r="F1035" t="s">
-        <v>1930</v>
+        <v>1775</v>
       </c>
       <c r="G1035" t="n">
         <v>1</v>
@@ -36409,10 +36367,10 @@
         <v>1035</v>
       </c>
       <c r="E1036" t="s">
-        <v>1931</v>
+        <v>1917</v>
       </c>
       <c r="F1036" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
       <c r="G1036" t="n">
         <v>1</v>
@@ -36438,10 +36396,10 @@
         <v>1036</v>
       </c>
       <c r="E1037" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="F1037" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
       <c r="G1037" t="n">
         <v>1</v>
@@ -36467,10 +36425,10 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1933</v>
+        <v>1919</v>
       </c>
       <c r="F1038" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
       <c r="G1038" t="n">
         <v>1</v>
@@ -36496,10 +36454,10 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="F1039" t="s">
-        <v>1936</v>
+        <v>1922</v>
       </c>
       <c r="G1039" t="n">
         <v>1</v>
@@ -36525,10 +36483,10 @@
         <v>1039</v>
       </c>
       <c r="E1040" t="s">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="F1040" t="s">
-        <v>1938</v>
+        <v>1924</v>
       </c>
       <c r="G1040" t="n">
         <v>1</v>
@@ -36554,10 +36512,10 @@
         <v>1040</v>
       </c>
       <c r="E1041" t="s">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="F1041" t="s">
-        <v>1940</v>
+        <v>1926</v>
       </c>
       <c r="G1041" t="n">
         <v>1</v>
@@ -36583,10 +36541,10 @@
         <v>1041</v>
       </c>
       <c r="E1042" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F1042" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G1042" t="n">
         <v>2</v>
@@ -36612,10 +36570,10 @@
         <v>1042</v>
       </c>
       <c r="E1043" t="s">
-        <v>1941</v>
+        <v>1927</v>
       </c>
       <c r="F1043" t="s">
-        <v>1942</v>
+        <v>1928</v>
       </c>
       <c r="G1043" t="n">
         <v>1</v>
@@ -36641,10 +36599,10 @@
         <v>1043</v>
       </c>
       <c r="E1044" t="s">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="F1044" t="s">
-        <v>1944</v>
+        <v>1930</v>
       </c>
       <c r="G1044" t="n">
         <v>1</v>
@@ -36670,10 +36628,10 @@
         <v>1044</v>
       </c>
       <c r="E1045" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
       <c r="F1045" t="s">
-        <v>1866</v>
+        <v>1853</v>
       </c>
       <c r="G1045" t="n">
         <v>1</v>
@@ -36699,10 +36657,10 @@
         <v>1045</v>
       </c>
       <c r="E1046" t="s">
-        <v>1945</v>
+        <v>1931</v>
       </c>
       <c r="F1046" t="s">
-        <v>1946</v>
+        <v>1932</v>
       </c>
       <c r="G1046" t="n">
         <v>1</v>
@@ -36728,10 +36686,10 @@
         <v>1046</v>
       </c>
       <c r="E1047" t="s">
-        <v>1947</v>
+        <v>1933</v>
       </c>
       <c r="F1047" t="s">
-        <v>1948</v>
+        <v>1934</v>
       </c>
       <c r="G1047" t="n">
         <v>1</v>
@@ -36757,10 +36715,10 @@
         <v>1047</v>
       </c>
       <c r="E1048" t="s">
-        <v>1949</v>
+        <v>1935</v>
       </c>
       <c r="F1048" t="s">
-        <v>1950</v>
+        <v>1936</v>
       </c>
       <c r="G1048" t="n">
         <v>1</v>
@@ -36786,10 +36744,10 @@
         <v>1048</v>
       </c>
       <c r="E1049" t="s">
-        <v>1951</v>
+        <v>1937</v>
       </c>
       <c r="F1049" t="s">
-        <v>1952</v>
+        <v>1938</v>
       </c>
       <c r="G1049" t="n">
         <v>1</v>
@@ -36815,10 +36773,10 @@
         <v>1049</v>
       </c>
       <c r="E1050" t="s">
-        <v>1953</v>
+        <v>1939</v>
       </c>
       <c r="F1050" t="s">
-        <v>1954</v>
+        <v>1940</v>
       </c>
       <c r="G1050" t="n">
         <v>10</v>
@@ -36844,10 +36802,10 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1955</v>
+        <v>1941</v>
       </c>
       <c r="F1051" t="s">
-        <v>1956</v>
+        <v>1942</v>
       </c>
       <c r="G1051" t="n">
         <v>1</v>
@@ -36873,10 +36831,10 @@
         <v>1051</v>
       </c>
       <c r="E1052" t="s">
-        <v>1957</v>
+        <v>1943</v>
       </c>
       <c r="F1052" t="s">
-        <v>1958</v>
+        <v>1944</v>
       </c>
       <c r="G1052" t="n">
         <v>1</v>
@@ -36902,10 +36860,10 @@
         <v>1052</v>
       </c>
       <c r="E1053" t="s">
-        <v>1959</v>
+        <v>1945</v>
       </c>
       <c r="F1053" t="s">
-        <v>1960</v>
+        <v>1946</v>
       </c>
       <c r="G1053" t="n">
         <v>1</v>
@@ -36931,10 +36889,10 @@
         <v>1053</v>
       </c>
       <c r="E1054" t="s">
-        <v>1961</v>
+        <v>1947</v>
       </c>
       <c r="F1054" t="s">
-        <v>1962</v>
+        <v>1948</v>
       </c>
       <c r="G1054" t="n">
         <v>4</v>
@@ -36960,10 +36918,10 @@
         <v>1054</v>
       </c>
       <c r="E1055" t="s">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="F1055" t="s">
-        <v>1964</v>
+        <v>1950</v>
       </c>
       <c r="G1055" t="n">
         <v>1</v>
@@ -36989,10 +36947,10 @@
         <v>1055</v>
       </c>
       <c r="E1056" t="s">
-        <v>1965</v>
+        <v>1951</v>
       </c>
       <c r="F1056" t="s">
-        <v>1966</v>
+        <v>1952</v>
       </c>
       <c r="G1056" t="n">
         <v>1</v>
@@ -37018,10 +36976,10 @@
         <v>1056</v>
       </c>
       <c r="E1057" t="s">
-        <v>1967</v>
+        <v>1953</v>
       </c>
       <c r="F1057" t="s">
-        <v>1968</v>
+        <v>1954</v>
       </c>
       <c r="G1057" t="n">
         <v>1</v>
@@ -37047,10 +37005,10 @@
         <v>1057</v>
       </c>
       <c r="E1058" t="s">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="F1058" t="s">
-        <v>1970</v>
+        <v>1956</v>
       </c>
       <c r="G1058" t="n">
         <v>1</v>
@@ -37076,10 +37034,10 @@
         <v>1058</v>
       </c>
       <c r="E1059" t="s">
-        <v>1971</v>
+        <v>1957</v>
       </c>
       <c r="F1059" t="s">
-        <v>1972</v>
+        <v>1958</v>
       </c>
       <c r="G1059" t="n">
         <v>5</v>
@@ -37105,10 +37063,10 @@
         <v>1059</v>
       </c>
       <c r="E1060" t="s">
-        <v>1973</v>
+        <v>1959</v>
       </c>
       <c r="F1060" t="s">
-        <v>1974</v>
+        <v>1960</v>
       </c>
       <c r="G1060" t="n">
         <v>1</v>
@@ -37134,10 +37092,10 @@
         <v>1060</v>
       </c>
       <c r="E1061" t="s">
-        <v>1975</v>
+        <v>1961</v>
       </c>
       <c r="F1061" t="s">
-        <v>1976</v>
+        <v>1962</v>
       </c>
       <c r="G1061" t="n">
         <v>1</v>
@@ -37163,10 +37121,10 @@
         <v>1061</v>
       </c>
       <c r="E1062" t="s">
-        <v>1977</v>
+        <v>1963</v>
       </c>
       <c r="F1062" t="s">
-        <v>1978</v>
+        <v>1964</v>
       </c>
       <c r="G1062" t="n">
         <v>1</v>
@@ -37192,10 +37150,10 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1979</v>
+        <v>1965</v>
       </c>
       <c r="F1063" t="s">
-        <v>1980</v>
+        <v>1966</v>
       </c>
       <c r="G1063" t="n">
         <v>1</v>
@@ -37221,10 +37179,10 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="F1064" t="s">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="G1064" t="n">
         <v>1</v>
@@ -37250,10 +37208,10 @@
         <v>1064</v>
       </c>
       <c r="E1065" t="s">
-        <v>1983</v>
+        <v>1969</v>
       </c>
       <c r="F1065" t="s">
-        <v>1984</v>
+        <v>1970</v>
       </c>
       <c r="G1065" t="n">
         <v>1</v>
@@ -37279,10 +37237,10 @@
         <v>1065</v>
       </c>
       <c r="E1066" t="s">
-        <v>1985</v>
+        <v>1971</v>
       </c>
       <c r="F1066" t="s">
-        <v>1986</v>
+        <v>1972</v>
       </c>
       <c r="G1066" t="n">
         <v>1</v>
@@ -37308,10 +37266,10 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>1987</v>
+        <v>1973</v>
       </c>
       <c r="F1067" t="s">
-        <v>1988</v>
+        <v>1974</v>
       </c>
       <c r="G1067" t="n">
         <v>1</v>
@@ -37337,10 +37295,10 @@
         <v>1067</v>
       </c>
       <c r="E1068" t="s">
-        <v>1989</v>
+        <v>1975</v>
       </c>
       <c r="F1068" t="s">
-        <v>1990</v>
+        <v>1976</v>
       </c>
       <c r="G1068" t="n">
         <v>1</v>
@@ -37366,10 +37324,10 @@
         <v>1068</v>
       </c>
       <c r="E1069" t="s">
-        <v>1991</v>
+        <v>1977</v>
       </c>
       <c r="F1069" t="s">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="G1069" t="n">
         <v>1</v>
@@ -37395,10 +37353,10 @@
         <v>1069</v>
       </c>
       <c r="E1070" t="s">
-        <v>1993</v>
+        <v>1979</v>
       </c>
       <c r="F1070" t="s">
-        <v>1994</v>
+        <v>1980</v>
       </c>
       <c r="G1070" t="n">
         <v>1</v>
@@ -37424,10 +37382,10 @@
         <v>1070</v>
       </c>
       <c r="E1071" t="s">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="F1071" t="s">
-        <v>1996</v>
+        <v>1982</v>
       </c>
       <c r="G1071" t="n">
         <v>1</v>
@@ -37453,10 +37411,10 @@
         <v>1071</v>
       </c>
       <c r="E1072" t="s">
-        <v>1997</v>
+        <v>1983</v>
       </c>
       <c r="F1072" t="s">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="G1072" t="n">
         <v>1</v>
@@ -37482,10 +37440,10 @@
         <v>1072</v>
       </c>
       <c r="E1073" t="s">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="F1073" t="s">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="G1073" t="n">
         <v>14</v>
@@ -37511,10 +37469,10 @@
         <v>1073</v>
       </c>
       <c r="E1074" t="s">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="F1074" t="s">
-        <v>2001</v>
+        <v>1987</v>
       </c>
       <c r="G1074" t="n">
         <v>3</v>
@@ -37540,10 +37498,10 @@
         <v>1074</v>
       </c>
       <c r="E1075" t="s">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="F1075" t="s">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="G1075" t="n">
         <v>2</v>
